--- a/Financials/Yearly/KMTUY_YR_FIN.xlsx
+++ b/Financials/Yearly/KMTUY_YR_FIN.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EEB40F4-AD8B-48F4-89FA-2D3AD3E5824F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="KMTUY" sheetId="6" r:id="rId1"/>
@@ -17,7 +18,7 @@
   <definedNames>
     <definedName name="Ticker">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511" calcMode="manual"/>
+  <calcPr calcId="152511" calcMode="manual" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -303,9 +304,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +348,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -444,6 +445,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -479,6 +497,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -654,32 +689,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A5:K102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="10" width="14.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
@@ -706,88 +741,88 @@
       </c>
       <c r="K7" s="2"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>22184800</v>
+        <v>22610000</v>
       </c>
       <c r="E8" s="3">
-        <v>15992500</v>
+        <v>16299000</v>
       </c>
       <c r="F8" s="3">
-        <v>16453500</v>
+        <v>16768900</v>
       </c>
       <c r="G8" s="3">
-        <v>17550900</v>
+        <v>17887200</v>
       </c>
       <c r="H8" s="3">
-        <v>17328900</v>
+        <v>17661100</v>
       </c>
       <c r="I8" s="3">
-        <v>16719900</v>
+        <v>17040300</v>
       </c>
       <c r="J8" s="3">
-        <v>17578200</v>
+        <v>17915100</v>
       </c>
       <c r="K8" s="3"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>15662900</v>
+        <v>15963100</v>
       </c>
       <c r="E9" s="3">
-        <v>11410600</v>
+        <v>11629300</v>
       </c>
       <c r="F9" s="3">
-        <v>11670900</v>
+        <v>11894600</v>
       </c>
       <c r="G9" s="3">
-        <v>12428600</v>
+        <v>12666800</v>
       </c>
       <c r="H9" s="3">
-        <v>12356300</v>
+        <v>12593200</v>
       </c>
       <c r="I9" s="3">
-        <v>12218100</v>
+        <v>12452200</v>
       </c>
       <c r="J9" s="3">
-        <v>12779600</v>
+        <v>13024500</v>
       </c>
       <c r="K9" s="3"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>6521900</v>
+        <v>6646900</v>
       </c>
       <c r="E10" s="3">
-        <v>4581900</v>
+        <v>4669700</v>
       </c>
       <c r="F10" s="3">
-        <v>4782600</v>
+        <v>4874300</v>
       </c>
       <c r="G10" s="3">
-        <v>5122300</v>
+        <v>5220400</v>
       </c>
       <c r="H10" s="3">
-        <v>4972600</v>
+        <v>5067900</v>
       </c>
       <c r="I10" s="3">
-        <v>4501800</v>
+        <v>4588100</v>
       </c>
       <c r="J10" s="3">
-        <v>4798700</v>
+        <v>4890600</v>
       </c>
       <c r="K10" s="3"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -800,34 +835,34 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>653100</v>
+        <v>665600</v>
       </c>
       <c r="E12" s="3">
-        <v>625400</v>
+        <v>637400</v>
       </c>
       <c r="F12" s="3">
-        <v>627400</v>
+        <v>639500</v>
       </c>
       <c r="G12" s="3">
-        <v>627200</v>
+        <v>639300</v>
       </c>
       <c r="H12" s="3">
-        <v>571900</v>
+        <v>582900</v>
       </c>
       <c r="I12" s="3">
-        <v>539200</v>
+        <v>549500</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>8</v>
       </c>
       <c r="K12" s="3"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -854,34 +889,34 @@
       </c>
       <c r="K13" s="3"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>177800</v>
+        <v>181200</v>
       </c>
       <c r="E14" s="3">
-        <v>15500</v>
+        <v>15800</v>
       </c>
       <c r="F14" s="3">
-        <v>26900</v>
+        <v>27400</v>
       </c>
       <c r="G14" s="3">
-        <v>10000</v>
+        <v>10200</v>
       </c>
       <c r="H14" s="3">
-        <v>20400</v>
+        <v>20800</v>
       </c>
       <c r="I14" s="3">
-        <v>16900</v>
+        <v>17200</v>
       </c>
       <c r="J14" s="3">
-        <v>27600</v>
+        <v>28100</v>
       </c>
       <c r="K14" s="3"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -908,7 +943,7 @@
       </c>
       <c r="K15" s="3"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -918,61 +953,61 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
     </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>19775900</v>
+        <v>20154900</v>
       </c>
       <c r="E17" s="3">
-        <v>14448300</v>
+        <v>14725200</v>
       </c>
       <c r="F17" s="3">
-        <v>14603500</v>
+        <v>14883300</v>
       </c>
       <c r="G17" s="3">
-        <v>15403800</v>
+        <v>15699000</v>
       </c>
       <c r="H17" s="3">
-        <v>15195700</v>
+        <v>15487000</v>
       </c>
       <c r="I17" s="3">
-        <v>14843000</v>
+        <v>15127400</v>
       </c>
       <c r="J17" s="3">
-        <v>15304500</v>
+        <v>15597800</v>
       </c>
       <c r="K17" s="3"/>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>2408900</v>
+        <v>2455100</v>
       </c>
       <c r="E18" s="3">
-        <v>1544200</v>
+        <v>1573800</v>
       </c>
       <c r="F18" s="3">
-        <v>1850100</v>
+        <v>1885500</v>
       </c>
       <c r="G18" s="3">
-        <v>2147100</v>
+        <v>2188200</v>
       </c>
       <c r="H18" s="3">
-        <v>2133200</v>
+        <v>2174100</v>
       </c>
       <c r="I18" s="3">
-        <v>1876900</v>
+        <v>1912900</v>
       </c>
       <c r="J18" s="3">
-        <v>2273800</v>
+        <v>2317300</v>
       </c>
       <c r="K18" s="3"/>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -985,142 +1020,142 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
     </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>342400</v>
+        <v>348900</v>
       </c>
       <c r="E20" s="3">
-        <v>5200</v>
+        <v>5300</v>
       </c>
       <c r="F20" s="3">
-        <v>45000</v>
+        <v>45900</v>
       </c>
       <c r="G20" s="3">
-        <v>29600</v>
+        <v>30200</v>
       </c>
       <c r="H20" s="3">
-        <v>92200</v>
+        <v>93900</v>
       </c>
       <c r="I20" s="3">
-        <v>11000</v>
+        <v>11200</v>
       </c>
       <c r="J20" s="3">
-        <v>9300</v>
+        <v>9500</v>
       </c>
       <c r="K20" s="3"/>
     </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>3939100</v>
+        <v>4015900</v>
       </c>
       <c r="E21" s="3">
-        <v>2474500</v>
+        <v>2523000</v>
       </c>
       <c r="F21" s="3">
-        <v>2892700</v>
+        <v>2949200</v>
       </c>
       <c r="G21" s="3">
-        <v>3083600</v>
+        <v>3143700</v>
       </c>
       <c r="H21" s="3">
-        <v>2999500</v>
+        <v>3057800</v>
       </c>
       <c r="I21" s="3">
-        <v>2680200</v>
+        <v>2732400</v>
       </c>
       <c r="J21" s="3">
-        <v>3082300</v>
+        <v>3142300</v>
       </c>
       <c r="K21" s="3"/>
     </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>163000</v>
+        <v>166100</v>
       </c>
       <c r="E22" s="3">
-        <v>72800</v>
+        <v>74200</v>
       </c>
       <c r="F22" s="3">
-        <v>77800</v>
+        <v>79300</v>
       </c>
       <c r="G22" s="3">
-        <v>82700</v>
+        <v>84300</v>
       </c>
       <c r="H22" s="3">
-        <v>78300</v>
+        <v>79800</v>
       </c>
       <c r="I22" s="3">
-        <v>73100</v>
+        <v>74500</v>
       </c>
       <c r="J22" s="3">
-        <v>69000</v>
+        <v>70400</v>
       </c>
       <c r="K22" s="3"/>
     </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>2588300</v>
+        <v>2637900</v>
       </c>
       <c r="E23" s="3">
-        <v>1476600</v>
+        <v>1504900</v>
       </c>
       <c r="F23" s="3">
-        <v>1817300</v>
+        <v>1852100</v>
       </c>
       <c r="G23" s="3">
-        <v>2094000</v>
+        <v>2134100</v>
       </c>
       <c r="H23" s="3">
-        <v>2147000</v>
+        <v>2188200</v>
       </c>
       <c r="I23" s="3">
-        <v>1814800</v>
+        <v>1849600</v>
       </c>
       <c r="J23" s="3">
-        <v>2214000</v>
+        <v>2256500</v>
       </c>
       <c r="K23" s="3"/>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>766300</v>
+        <v>780900</v>
       </c>
       <c r="E24" s="3">
-        <v>447100</v>
+        <v>455700</v>
       </c>
       <c r="F24" s="3">
-        <v>565200</v>
+        <v>576000</v>
       </c>
       <c r="G24" s="3">
-        <v>696300</v>
+        <v>709600</v>
       </c>
       <c r="H24" s="3">
-        <v>673600</v>
+        <v>686500</v>
       </c>
       <c r="I24" s="3">
-        <v>612800</v>
+        <v>624600</v>
       </c>
       <c r="J24" s="3">
-        <v>660500</v>
+        <v>673200</v>
       </c>
       <c r="K24" s="3"/>
     </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1147,61 +1182,61 @@
       </c>
       <c r="K25" s="3"/>
     </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1822100</v>
+        <v>1857000</v>
       </c>
       <c r="E26" s="3">
-        <v>1029500</v>
+        <v>1049200</v>
       </c>
       <c r="F26" s="3">
-        <v>1252100</v>
+        <v>1276100</v>
       </c>
       <c r="G26" s="3">
-        <v>1397700</v>
+        <v>1424500</v>
       </c>
       <c r="H26" s="3">
-        <v>1473400</v>
+        <v>1501700</v>
       </c>
       <c r="I26" s="3">
-        <v>1202000</v>
+        <v>1225000</v>
       </c>
       <c r="J26" s="3">
-        <v>1553500</v>
+        <v>1583300</v>
       </c>
       <c r="K26" s="3"/>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1742200</v>
+        <v>1775500</v>
       </c>
       <c r="E27" s="3">
-        <v>1005700</v>
+        <v>1025000</v>
       </c>
       <c r="F27" s="3">
-        <v>1219000</v>
+        <v>1242300</v>
       </c>
       <c r="G27" s="3">
-        <v>1366100</v>
+        <v>1392200</v>
       </c>
       <c r="H27" s="3">
-        <v>1414900</v>
+        <v>1442000</v>
       </c>
       <c r="I27" s="3">
-        <v>1120500</v>
+        <v>1141900</v>
       </c>
       <c r="J27" s="3">
-        <v>1481700</v>
+        <v>1510100</v>
       </c>
       <c r="K27" s="3"/>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1228,7 +1263,7 @@
       </c>
       <c r="K28" s="3"/>
     </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1255,7 +1290,7 @@
       </c>
       <c r="K29" s="3"/>
     </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1282,7 +1317,7 @@
       </c>
       <c r="K30" s="3"/>
     </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1309,61 +1344,61 @@
       </c>
       <c r="K31" s="3"/>
     </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-342400</v>
+        <v>-348900</v>
       </c>
       <c r="E32" s="3">
-        <v>-5200</v>
+        <v>-5300</v>
       </c>
       <c r="F32" s="3">
-        <v>-45000</v>
+        <v>-45900</v>
       </c>
       <c r="G32" s="3">
-        <v>-29600</v>
+        <v>-30200</v>
       </c>
       <c r="H32" s="3">
-        <v>-92200</v>
+        <v>-93900</v>
       </c>
       <c r="I32" s="3">
-        <v>-11000</v>
+        <v>-11200</v>
       </c>
       <c r="J32" s="3">
-        <v>-9300</v>
+        <v>-9500</v>
       </c>
       <c r="K32" s="3"/>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1742200</v>
+        <v>1775500</v>
       </c>
       <c r="E33" s="3">
-        <v>1005700</v>
+        <v>1025000</v>
       </c>
       <c r="F33" s="3">
-        <v>1219000</v>
+        <v>1242300</v>
       </c>
       <c r="G33" s="3">
-        <v>1366100</v>
+        <v>1392200</v>
       </c>
       <c r="H33" s="3">
-        <v>1414900</v>
+        <v>1442000</v>
       </c>
       <c r="I33" s="3">
-        <v>1120500</v>
+        <v>1141900</v>
       </c>
       <c r="J33" s="3">
-        <v>1481700</v>
+        <v>1510100</v>
       </c>
       <c r="K33" s="3"/>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1390,39 +1425,39 @@
       </c>
       <c r="K34" s="3"/>
     </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1742200</v>
+        <v>1775500</v>
       </c>
       <c r="E35" s="3">
-        <v>1005700</v>
+        <v>1025000</v>
       </c>
       <c r="F35" s="3">
-        <v>1219000</v>
+        <v>1242300</v>
       </c>
       <c r="G35" s="3">
-        <v>1366100</v>
+        <v>1392200</v>
       </c>
       <c r="H35" s="3">
-        <v>1414900</v>
+        <v>1442000</v>
       </c>
       <c r="I35" s="3">
-        <v>1120500</v>
+        <v>1141900</v>
       </c>
       <c r="J35" s="3">
-        <v>1481700</v>
+        <v>1510100</v>
       </c>
       <c r="K35" s="3"/>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
@@ -1449,7 +1484,7 @@
       </c>
       <c r="K38" s="2"/>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1462,7 +1497,7 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
     </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1475,250 +1510,250 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
     </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1302600</v>
+        <v>1327600</v>
       </c>
       <c r="E41" s="3">
-        <v>1083800</v>
+        <v>1104600</v>
       </c>
       <c r="F41" s="3">
-        <v>962100</v>
+        <v>980600</v>
       </c>
       <c r="G41" s="3">
-        <v>951900</v>
+        <v>970100</v>
       </c>
       <c r="H41" s="3">
-        <v>808500</v>
+        <v>824000</v>
       </c>
       <c r="I41" s="3">
-        <v>832300</v>
+        <v>848300</v>
       </c>
       <c r="J41" s="3">
-        <v>736900</v>
+        <v>751000</v>
       </c>
       <c r="K41" s="3"/>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>8900</v>
+        <v>9000</v>
       </c>
       <c r="E42" s="3">
         <v>1700</v>
       </c>
       <c r="F42" s="3">
-        <v>2200</v>
+        <v>2300</v>
       </c>
       <c r="G42" s="3">
-        <v>3300</v>
+        <v>3400</v>
       </c>
       <c r="H42" s="3">
-        <v>4300</v>
+        <v>4400</v>
       </c>
       <c r="I42" s="3">
-        <v>5000</v>
+        <v>5100</v>
       </c>
       <c r="J42" s="3">
-        <v>8000</v>
+        <v>8200</v>
       </c>
       <c r="K42" s="3"/>
     </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>7031400</v>
+        <v>7166200</v>
       </c>
       <c r="E43" s="3">
-        <v>5493000</v>
+        <v>5598300</v>
       </c>
       <c r="F43" s="3">
-        <v>5174800</v>
+        <v>5274000</v>
       </c>
       <c r="G43" s="3">
-        <v>5500200</v>
+        <v>5605600</v>
       </c>
       <c r="H43" s="3">
-        <v>5475900</v>
+        <v>5580900</v>
       </c>
       <c r="I43" s="3">
-        <v>5383500</v>
+        <v>5486700</v>
       </c>
       <c r="J43" s="3">
-        <v>4965000</v>
+        <v>5060100</v>
       </c>
       <c r="K43" s="3"/>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>6477700</v>
+        <v>6601800</v>
       </c>
       <c r="E44" s="3">
-        <v>4735700</v>
+        <v>4826400</v>
       </c>
       <c r="F44" s="3">
-        <v>4786300</v>
+        <v>4878100</v>
       </c>
       <c r="G44" s="3">
-        <v>5524900</v>
+        <v>5630800</v>
       </c>
       <c r="H44" s="3">
-        <v>5544400</v>
+        <v>5650700</v>
       </c>
       <c r="I44" s="3">
-        <v>5620400</v>
+        <v>5728200</v>
       </c>
       <c r="J44" s="3">
-        <v>5431600</v>
+        <v>5535700</v>
       </c>
       <c r="K44" s="3"/>
     </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1124100</v>
+        <v>1145600</v>
       </c>
       <c r="E45" s="3">
-        <v>1277000</v>
+        <v>1301500</v>
       </c>
       <c r="F45" s="3">
-        <v>1372300</v>
+        <v>1398600</v>
       </c>
       <c r="G45" s="3">
-        <v>1514800</v>
+        <v>1543800</v>
       </c>
       <c r="H45" s="3">
-        <v>1413600</v>
+        <v>1440700</v>
       </c>
       <c r="I45" s="3">
-        <v>1393200</v>
+        <v>1419900</v>
       </c>
       <c r="J45" s="3">
-        <v>1279700</v>
+        <v>1304300</v>
       </c>
       <c r="K45" s="3"/>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>15944600</v>
+        <v>16250200</v>
       </c>
       <c r="E46" s="3">
-        <v>12591200</v>
+        <v>12832500</v>
       </c>
       <c r="F46" s="3">
-        <v>12297800</v>
+        <v>12533500</v>
       </c>
       <c r="G46" s="3">
-        <v>13495100</v>
+        <v>13753800</v>
       </c>
       <c r="H46" s="3">
-        <v>13246700</v>
+        <v>13500600</v>
       </c>
       <c r="I46" s="3">
-        <v>13234500</v>
+        <v>13488200</v>
       </c>
       <c r="J46" s="3">
-        <v>12421300</v>
+        <v>12659400</v>
       </c>
       <c r="K46" s="3"/>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>3587600</v>
+        <v>3656300</v>
       </c>
       <c r="E47" s="3">
-        <v>3654400</v>
+        <v>3724400</v>
       </c>
       <c r="F47" s="3">
-        <v>3296400</v>
+        <v>3359600</v>
       </c>
       <c r="G47" s="3">
-        <v>3387600</v>
+        <v>3452500</v>
       </c>
       <c r="H47" s="3">
-        <v>3115800</v>
+        <v>3175500</v>
       </c>
       <c r="I47" s="3">
-        <v>2789700</v>
+        <v>2843200</v>
       </c>
       <c r="J47" s="3">
-        <v>2320700</v>
+        <v>2365200</v>
       </c>
       <c r="K47" s="3"/>
     </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>6568500</v>
+        <v>6694400</v>
       </c>
       <c r="E48" s="3">
-        <v>6023000</v>
+        <v>6138400</v>
       </c>
       <c r="F48" s="3">
-        <v>6189000</v>
+        <v>6307600</v>
       </c>
       <c r="G48" s="3">
-        <v>6598600</v>
+        <v>6725000</v>
       </c>
       <c r="H48" s="3">
-        <v>5919400</v>
+        <v>6032800</v>
       </c>
       <c r="I48" s="3">
-        <v>5190900</v>
+        <v>5290400</v>
       </c>
       <c r="J48" s="3">
-        <v>4698000</v>
+        <v>4788100</v>
       </c>
       <c r="K48" s="3"/>
     </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2919100</v>
+        <v>2975000</v>
       </c>
       <c r="E49" s="3">
-        <v>897200</v>
+        <v>914400</v>
       </c>
       <c r="F49" s="3">
-        <v>914200</v>
+        <v>931700</v>
       </c>
       <c r="G49" s="3">
-        <v>842500</v>
+        <v>858600</v>
       </c>
       <c r="H49" s="3">
-        <v>838700</v>
+        <v>854800</v>
       </c>
       <c r="I49" s="3">
-        <v>826900</v>
+        <v>842800</v>
       </c>
       <c r="J49" s="3">
-        <v>791000</v>
+        <v>806200</v>
       </c>
       <c r="K49" s="3"/>
     </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1745,7 +1780,7 @@
       </c>
       <c r="K50" s="3"/>
     </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="51" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1772,34 +1807,34 @@
       </c>
       <c r="K51" s="3"/>
     </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="52" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>894700</v>
+        <v>911800</v>
       </c>
       <c r="E52" s="3">
-        <v>397300</v>
+        <v>404900</v>
       </c>
       <c r="F52" s="3">
-        <v>494600</v>
+        <v>504100</v>
       </c>
       <c r="G52" s="3">
-        <v>498100</v>
+        <v>507700</v>
       </c>
       <c r="H52" s="3">
-        <v>398700</v>
+        <v>406400</v>
       </c>
       <c r="I52" s="3">
-        <v>291400</v>
+        <v>296900</v>
       </c>
       <c r="J52" s="3">
-        <v>352000</v>
+        <v>358800</v>
       </c>
       <c r="K52" s="3"/>
     </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1826,34 +1861,34 @@
       </c>
       <c r="K53" s="3"/>
     </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="54" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>29914400</v>
+        <v>30487700</v>
       </c>
       <c r="E54" s="3">
-        <v>23563000</v>
+        <v>24014600</v>
       </c>
       <c r="F54" s="3">
-        <v>23192000</v>
+        <v>23636500</v>
       </c>
       <c r="G54" s="3">
-        <v>24821900</v>
+        <v>25297600</v>
       </c>
       <c r="H54" s="3">
-        <v>23519300</v>
+        <v>23970100</v>
       </c>
       <c r="I54" s="3">
-        <v>22333400</v>
+        <v>22761400</v>
       </c>
       <c r="J54" s="3">
-        <v>20583100</v>
+        <v>20977600</v>
       </c>
       <c r="K54" s="3"/>
     </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1866,7 +1901,7 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
     </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="56" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1879,169 +1914,169 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
     </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="57" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2692500</v>
+        <v>2744100</v>
       </c>
       <c r="E57" s="3">
-        <v>2129800</v>
+        <v>2170600</v>
       </c>
       <c r="F57" s="3">
-        <v>1822000</v>
+        <v>1856900</v>
       </c>
       <c r="G57" s="3">
-        <v>1996600</v>
+        <v>2034800</v>
       </c>
       <c r="H57" s="3">
-        <v>2077600</v>
+        <v>2117400</v>
       </c>
       <c r="I57" s="3">
-        <v>2007100</v>
+        <v>2045500</v>
       </c>
       <c r="J57" s="3">
-        <v>2425600</v>
+        <v>2472100</v>
       </c>
       <c r="K57" s="3"/>
     </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2926200</v>
+        <v>2982300</v>
       </c>
       <c r="E58" s="3">
-        <v>1932300</v>
+        <v>1969300</v>
       </c>
       <c r="F58" s="3">
-        <v>2172400</v>
+        <v>2214000</v>
       </c>
       <c r="G58" s="3">
-        <v>2748400</v>
+        <v>2801100</v>
       </c>
       <c r="H58" s="3">
-        <v>2607800</v>
+        <v>2657800</v>
       </c>
       <c r="I58" s="3">
-        <v>2979900</v>
+        <v>3037000</v>
       </c>
       <c r="J58" s="3">
-        <v>2973900</v>
+        <v>3030900</v>
       </c>
       <c r="K58" s="3"/>
     </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3159500</v>
+        <v>3220100</v>
       </c>
       <c r="E59" s="3">
-        <v>2148500</v>
+        <v>2189700</v>
       </c>
       <c r="F59" s="3">
-        <v>2222500</v>
+        <v>2265100</v>
       </c>
       <c r="G59" s="3">
-        <v>2394500</v>
+        <v>2440400</v>
       </c>
       <c r="H59" s="3">
-        <v>2341700</v>
+        <v>2386600</v>
       </c>
       <c r="I59" s="3">
-        <v>2353700</v>
+        <v>2398800</v>
       </c>
       <c r="J59" s="3">
-        <v>2261600</v>
+        <v>2304900</v>
       </c>
       <c r="K59" s="3"/>
     </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>8778300</v>
+        <v>8946500</v>
       </c>
       <c r="E60" s="3">
-        <v>6210600</v>
+        <v>6329600</v>
       </c>
       <c r="F60" s="3">
-        <v>6216900</v>
+        <v>6336100</v>
       </c>
       <c r="G60" s="3">
-        <v>7139600</v>
+        <v>7276400</v>
       </c>
       <c r="H60" s="3">
-        <v>7027100</v>
+        <v>7161800</v>
       </c>
       <c r="I60" s="3">
-        <v>7340600</v>
+        <v>7481300</v>
       </c>
       <c r="J60" s="3">
-        <v>7661100</v>
+        <v>7807900</v>
       </c>
       <c r="K60" s="3"/>
     </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>4263800</v>
+        <v>4345500</v>
       </c>
       <c r="E61" s="3">
-        <v>1692900</v>
+        <v>1725400</v>
       </c>
       <c r="F61" s="3">
-        <v>1886100</v>
+        <v>1922200</v>
       </c>
       <c r="G61" s="3">
-        <v>2477100</v>
+        <v>2524600</v>
       </c>
       <c r="H61" s="3">
-        <v>2759200</v>
+        <v>2812000</v>
       </c>
       <c r="I61" s="3">
-        <v>3049600</v>
+        <v>3108100</v>
       </c>
       <c r="J61" s="3">
-        <v>2772000</v>
+        <v>2825200</v>
       </c>
       <c r="K61" s="3"/>
     </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1406700</v>
+        <v>1433600</v>
       </c>
       <c r="E62" s="3">
-        <v>1037100</v>
+        <v>1057000</v>
       </c>
       <c r="F62" s="3">
-        <v>1005500</v>
+        <v>1024800</v>
       </c>
       <c r="G62" s="3">
-        <v>1026500</v>
+        <v>1046200</v>
       </c>
       <c r="H62" s="3">
-        <v>950400</v>
+        <v>968600</v>
       </c>
       <c r="I62" s="3">
-        <v>831800</v>
+        <v>847700</v>
       </c>
       <c r="J62" s="3">
-        <v>770300</v>
+        <v>785100</v>
       </c>
       <c r="K62" s="3"/>
     </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2068,7 +2103,7 @@
       </c>
       <c r="K63" s="3"/>
     </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="64" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2095,7 +2130,7 @@
       </c>
       <c r="K64" s="3"/>
     </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2122,34 +2157,34 @@
       </c>
       <c r="K65" s="3"/>
     </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>15149900</v>
+        <v>15440300</v>
       </c>
       <c r="E66" s="3">
-        <v>9577900</v>
+        <v>9761500</v>
       </c>
       <c r="F66" s="3">
-        <v>9732500</v>
+        <v>9919000</v>
       </c>
       <c r="G66" s="3">
-        <v>11259900</v>
+        <v>11475700</v>
       </c>
       <c r="H66" s="3">
-        <v>11310700</v>
+        <v>11527500</v>
       </c>
       <c r="I66" s="3">
-        <v>11749800</v>
+        <v>11975000</v>
       </c>
       <c r="J66" s="3">
-        <v>11627100</v>
+        <v>11849900</v>
       </c>
       <c r="K66" s="3"/>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2162,7 +2197,7 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
     </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2189,7 +2224,7 @@
       </c>
       <c r="K68" s="3"/>
     </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2216,7 +2251,7 @@
       </c>
       <c r="K69" s="3"/>
     </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2243,7 +2278,7 @@
       </c>
       <c r="K70" s="3"/>
     </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2270,34 +2305,34 @@
       </c>
       <c r="K71" s="3"/>
     </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>13640200</v>
+        <v>13901600</v>
       </c>
       <c r="E72" s="3">
-        <v>12442100</v>
+        <v>12680600</v>
       </c>
       <c r="F72" s="3">
-        <v>11921700</v>
+        <v>12150200</v>
       </c>
       <c r="G72" s="3">
-        <v>11187900</v>
+        <v>11402300</v>
       </c>
       <c r="H72" s="3">
-        <v>10481800</v>
+        <v>10682700</v>
       </c>
       <c r="I72" s="3">
-        <v>9515200</v>
+        <v>9697500</v>
       </c>
       <c r="J72" s="3">
-        <v>8775500</v>
+        <v>8943700</v>
       </c>
       <c r="K72" s="3"/>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2324,7 +2359,7 @@
       </c>
       <c r="K73" s="3"/>
     </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2351,7 +2386,7 @@
       </c>
       <c r="K74" s="3"/>
     </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2378,34 +2413,34 @@
       </c>
       <c r="K75" s="3"/>
     </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>14764500</v>
+        <v>15047400</v>
       </c>
       <c r="E76" s="3">
-        <v>13985100</v>
+        <v>14253100</v>
       </c>
       <c r="F76" s="3">
-        <v>13459500</v>
+        <v>13717400</v>
       </c>
       <c r="G76" s="3">
-        <v>13561900</v>
+        <v>13821900</v>
       </c>
       <c r="H76" s="3">
-        <v>12208600</v>
+        <v>12442600</v>
       </c>
       <c r="I76" s="3">
-        <v>10583600</v>
+        <v>10786500</v>
       </c>
       <c r="J76" s="3">
-        <v>8956000</v>
+        <v>9127700</v>
       </c>
       <c r="K76" s="3"/>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2432,12 +2467,12 @@
       </c>
       <c r="K77" s="3"/>
     </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
@@ -2464,34 +2499,34 @@
       </c>
       <c r="K80" s="2"/>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1742200</v>
+        <v>1775500</v>
       </c>
       <c r="E81" s="3">
-        <v>1005700</v>
+        <v>1025000</v>
       </c>
       <c r="F81" s="3">
-        <v>1219000</v>
+        <v>1242300</v>
       </c>
       <c r="G81" s="3">
-        <v>1366100</v>
+        <v>1392200</v>
       </c>
       <c r="H81" s="3">
-        <v>1414900</v>
+        <v>1442000</v>
       </c>
       <c r="I81" s="3">
-        <v>1120500</v>
+        <v>1141900</v>
       </c>
       <c r="J81" s="3">
-        <v>1481700</v>
+        <v>1510100</v>
       </c>
       <c r="K81" s="3"/>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2504,34 +2539,34 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
     </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="83" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1187800</v>
+        <v>1210500</v>
       </c>
       <c r="E83" s="3">
-        <v>925100</v>
+        <v>942800</v>
       </c>
       <c r="F83" s="3">
-        <v>997600</v>
+        <v>1016700</v>
       </c>
       <c r="G83" s="3">
-        <v>906900</v>
+        <v>924200</v>
       </c>
       <c r="H83" s="3">
-        <v>774100</v>
+        <v>788900</v>
       </c>
       <c r="I83" s="3">
-        <v>792300</v>
+        <v>807500</v>
       </c>
       <c r="J83" s="3">
-        <v>799200</v>
+        <v>814600</v>
       </c>
       <c r="K83" s="3"/>
     </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2558,7 +2593,7 @@
       </c>
       <c r="K84" s="3"/>
     </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="85" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2585,7 +2620,7 @@
       </c>
       <c r="K85" s="3"/>
     </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="86" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2612,7 +2647,7 @@
       </c>
       <c r="K86" s="3"/>
     </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="87" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2639,7 +2674,7 @@
       </c>
       <c r="K87" s="3"/>
     </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="88" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2666,34 +2701,34 @@
       </c>
       <c r="K88" s="3"/>
     </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="89" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1316300</v>
+        <v>1341500</v>
       </c>
       <c r="E89" s="3">
-        <v>2271800</v>
+        <v>2315400</v>
       </c>
       <c r="F89" s="3">
-        <v>2835200</v>
+        <v>2889500</v>
       </c>
       <c r="G89" s="3">
-        <v>3048200</v>
+        <v>3106600</v>
       </c>
       <c r="H89" s="3">
-        <v>2833300</v>
+        <v>2887600</v>
       </c>
       <c r="I89" s="3">
-        <v>1898600</v>
+        <v>1935000</v>
       </c>
       <c r="J89" s="3">
-        <v>936700</v>
+        <v>954700</v>
       </c>
       <c r="K89" s="3"/>
     </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2706,34 +2741,34 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
     </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="91" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1374200</v>
+        <v>-1400500</v>
       </c>
       <c r="E91" s="3">
-        <v>-1335900</v>
+        <v>-1361600</v>
       </c>
       <c r="F91" s="3">
-        <v>-1476700</v>
+        <v>-1505000</v>
       </c>
       <c r="G91" s="3">
-        <v>-1774700</v>
+        <v>-1808700</v>
       </c>
       <c r="H91" s="3">
-        <v>-1650100</v>
+        <v>-1681700</v>
       </c>
       <c r="I91" s="3">
-        <v>-1268300</v>
+        <v>-1292600</v>
       </c>
       <c r="J91" s="3">
-        <v>-1118400</v>
+        <v>-1139900</v>
       </c>
       <c r="K91" s="3"/>
     </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2760,7 +2795,7 @@
       </c>
       <c r="K92" s="3"/>
     </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="93" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2787,34 +2822,34 @@
       </c>
       <c r="K93" s="3"/>
     </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="94" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-3350600</v>
+        <v>-3414800</v>
       </c>
       <c r="E94" s="3">
-        <v>-1182400</v>
+        <v>-1205000</v>
       </c>
       <c r="F94" s="3">
-        <v>-1318500</v>
+        <v>-1343700</v>
       </c>
       <c r="G94" s="3">
-        <v>-1612500</v>
+        <v>-1643400</v>
       </c>
       <c r="H94" s="3">
-        <v>-1485200</v>
+        <v>-1513600</v>
       </c>
       <c r="I94" s="3">
-        <v>-1165500</v>
+        <v>-1187800</v>
       </c>
       <c r="J94" s="3">
-        <v>-1104700</v>
+        <v>-1125800</v>
       </c>
       <c r="K94" s="3"/>
     </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2827,34 +2862,34 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
     </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="96" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-544000</v>
+        <v>-554500</v>
       </c>
       <c r="E96" s="3">
-        <v>-485300</v>
+        <v>-494600</v>
       </c>
       <c r="F96" s="3">
-        <v>-485200</v>
+        <v>-494500</v>
       </c>
       <c r="G96" s="3">
-        <v>-490700</v>
+        <v>-500100</v>
       </c>
       <c r="H96" s="3">
-        <v>-448300</v>
+        <v>-456900</v>
       </c>
       <c r="I96" s="3">
-        <v>-380300</v>
+        <v>-387600</v>
       </c>
       <c r="J96" s="3">
-        <v>-352100</v>
+        <v>-358900</v>
       </c>
       <c r="K96" s="3"/>
     </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -2881,7 +2916,7 @@
       </c>
       <c r="K97" s="3"/>
     </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="98" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -2908,7 +2943,7 @@
       </c>
       <c r="K98" s="3"/>
     </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="99" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -2935,84 +2970,84 @@
       </c>
       <c r="K99" s="3"/>
     </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="100" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>2163800</v>
+        <v>2205300</v>
       </c>
       <c r="E100" s="3">
-        <v>-955500</v>
+        <v>-973800</v>
       </c>
       <c r="F100" s="3">
-        <v>-1535200</v>
+        <v>-1564600</v>
       </c>
       <c r="G100" s="3">
-        <v>-1277100</v>
+        <v>-1301600</v>
       </c>
       <c r="H100" s="3">
-        <v>-1377900</v>
+        <v>-1404400</v>
       </c>
       <c r="I100" s="3">
-        <v>-637000</v>
+        <v>-649200</v>
       </c>
       <c r="J100" s="3">
-        <v>166600</v>
+        <v>169800</v>
       </c>
       <c r="K100" s="3"/>
     </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>87800</v>
+        <v>89500</v>
       </c>
       <c r="E101" s="3">
-        <v>-13000</v>
+        <v>-13300</v>
       </c>
       <c r="F101" s="3">
-        <v>21700</v>
+        <v>22100</v>
       </c>
       <c r="G101" s="3">
-        <v>-25200</v>
+        <v>-25700</v>
       </c>
       <c r="H101" s="3">
-        <v>5500</v>
+        <v>5600</v>
       </c>
       <c r="I101" s="3">
         <v>-2600</v>
       </c>
       <c r="J101" s="3">
-        <v>-8800</v>
+        <v>-9000</v>
       </c>
       <c r="K101" s="3"/>
     </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>217300</v>
+        <v>221400</v>
       </c>
       <c r="E102" s="3">
-        <v>121000</v>
+        <v>123300</v>
       </c>
       <c r="F102" s="3">
-        <v>3100</v>
+        <v>3200</v>
       </c>
       <c r="G102" s="3">
-        <v>133300</v>
+        <v>135900</v>
       </c>
       <c r="H102" s="3">
-        <v>-24400</v>
+        <v>-24800</v>
       </c>
       <c r="I102" s="3">
-        <v>93500</v>
+        <v>95300</v>
       </c>
       <c r="J102" s="3">
-        <v>-10200</v>
+        <v>-10400</v>
       </c>
       <c r="K102" s="3"/>
     </row>

--- a/Financials/Yearly/KMTUY_YR_FIN.xlsx
+++ b/Financials/Yearly/KMTUY_YR_FIN.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EEB40F4-AD8B-48F4-89FA-2D3AD3E5824F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
   </bookViews>
   <sheets>
     <sheet name="KMTUY" sheetId="6" r:id="rId1"/>
@@ -23,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="92">
   <si>
     <t>KMTUY</t>
   </si>
@@ -304,7 +303,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
@@ -445,23 +444,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -497,23 +479,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -689,140 +654,152 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="10" width="14.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43555</v>
+      </c>
+      <c r="E7" s="2">
         <v>43190</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>42825</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42460</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42094</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>41729</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41364</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>40999</v>
       </c>
-      <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>22610000</v>
+        <v>24772500</v>
       </c>
       <c r="E8" s="3">
-        <v>16299000</v>
+        <v>22735100</v>
       </c>
       <c r="F8" s="3">
-        <v>16768900</v>
+        <v>16389200</v>
       </c>
       <c r="G8" s="3">
-        <v>17887200</v>
+        <v>16861600</v>
       </c>
       <c r="H8" s="3">
-        <v>17661100</v>
+        <v>17986200</v>
       </c>
       <c r="I8" s="3">
-        <v>17040300</v>
+        <v>17758700</v>
       </c>
       <c r="J8" s="3">
+        <v>17134600</v>
+      </c>
+      <c r="K8" s="3">
         <v>17915100</v>
       </c>
-      <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>15963100</v>
+        <v>17136100</v>
       </c>
       <c r="E9" s="3">
-        <v>11629300</v>
+        <v>16051400</v>
       </c>
       <c r="F9" s="3">
-        <v>11894600</v>
+        <v>11693600</v>
       </c>
       <c r="G9" s="3">
-        <v>12666800</v>
+        <v>11960400</v>
       </c>
       <c r="H9" s="3">
-        <v>12593200</v>
+        <v>12736800</v>
       </c>
       <c r="I9" s="3">
-        <v>12452200</v>
+        <v>12662800</v>
       </c>
       <c r="J9" s="3">
+        <v>12521100</v>
+      </c>
+      <c r="K9" s="3">
         <v>13024500</v>
       </c>
-      <c r="K9" s="3"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>6646900</v>
+        <v>7636300</v>
       </c>
       <c r="E10" s="3">
-        <v>4669700</v>
+        <v>6683600</v>
       </c>
       <c r="F10" s="3">
-        <v>4874300</v>
+        <v>4695600</v>
       </c>
       <c r="G10" s="3">
-        <v>5220400</v>
+        <v>4901200</v>
       </c>
       <c r="H10" s="3">
-        <v>5067900</v>
+        <v>5249300</v>
       </c>
       <c r="I10" s="3">
-        <v>4588100</v>
+        <v>5095900</v>
       </c>
       <c r="J10" s="3">
+        <v>4613500</v>
+      </c>
+      <c r="K10" s="3">
         <v>4890600</v>
       </c>
-      <c r="K10" s="3"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -834,35 +811,39 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="3">
-        <v>665600</v>
-      </c>
-      <c r="E12" s="3">
-        <v>637400</v>
-      </c>
-      <c r="F12" s="3">
-        <v>639500</v>
-      </c>
-      <c r="G12" s="3">
-        <v>639300</v>
-      </c>
-      <c r="H12" s="3">
-        <v>582900</v>
-      </c>
-      <c r="I12" s="3">
-        <v>549500</v>
+      <c r="D12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K12" s="3"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L12" s="3"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -887,36 +868,42 @@
       <c r="J13" s="3">
         <v>0</v>
       </c>
-      <c r="K13" s="3"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K13" s="3">
+        <v>0</v>
+      </c>
+      <c r="L13" s="3"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>181200</v>
+        <v>11400</v>
       </c>
       <c r="E14" s="3">
+        <v>182200</v>
+      </c>
+      <c r="F14" s="3">
         <v>15800</v>
       </c>
-      <c r="F14" s="3">
-        <v>27400</v>
-      </c>
       <c r="G14" s="3">
+        <v>27600</v>
+      </c>
+      <c r="H14" s="3">
         <v>10200</v>
       </c>
-      <c r="H14" s="3">
-        <v>20800</v>
-      </c>
       <c r="I14" s="3">
-        <v>17200</v>
+        <v>20900</v>
       </c>
       <c r="J14" s="3">
+        <v>17300</v>
+      </c>
+      <c r="K14" s="3">
         <v>28100</v>
       </c>
-      <c r="K14" s="3"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L14" s="3"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -941,9 +928,12 @@
       <c r="J15" s="3">
         <v>0</v>
       </c>
-      <c r="K15" s="3"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K15" s="3">
+        <v>0</v>
+      </c>
+      <c r="L15" s="3"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -952,62 +942,69 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>20154900</v>
+        <v>21156400</v>
       </c>
       <c r="E17" s="3">
-        <v>14725200</v>
+        <v>20266400</v>
       </c>
       <c r="F17" s="3">
-        <v>14883300</v>
+        <v>14806600</v>
       </c>
       <c r="G17" s="3">
-        <v>15699000</v>
+        <v>14965700</v>
       </c>
       <c r="H17" s="3">
-        <v>15487000</v>
+        <v>15785800</v>
       </c>
       <c r="I17" s="3">
-        <v>15127400</v>
+        <v>15572600</v>
       </c>
       <c r="J17" s="3">
+        <v>15211100</v>
+      </c>
+      <c r="K17" s="3">
         <v>15597800</v>
       </c>
-      <c r="K17" s="3"/>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L17" s="3"/>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>2455100</v>
+        <v>3616100</v>
       </c>
       <c r="E18" s="3">
-        <v>1573800</v>
+        <v>2468700</v>
       </c>
       <c r="F18" s="3">
-        <v>1885500</v>
+        <v>1582500</v>
       </c>
       <c r="G18" s="3">
-        <v>2188200</v>
+        <v>1896000</v>
       </c>
       <c r="H18" s="3">
-        <v>2174100</v>
+        <v>2200300</v>
       </c>
       <c r="I18" s="3">
-        <v>1912900</v>
+        <v>2186100</v>
       </c>
       <c r="J18" s="3">
+        <v>1923500</v>
+      </c>
+      <c r="K18" s="3">
         <v>2317300</v>
       </c>
-      <c r="K18" s="3"/>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L18" s="3"/>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1019,143 +1016,159 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>348900</v>
+        <v>34200</v>
       </c>
       <c r="E20" s="3">
+        <v>350900</v>
+      </c>
+      <c r="F20" s="3">
         <v>5300</v>
       </c>
-      <c r="F20" s="3">
-        <v>45900</v>
-      </c>
       <c r="G20" s="3">
-        <v>30200</v>
+        <v>46100</v>
       </c>
       <c r="H20" s="3">
-        <v>93900</v>
+        <v>30400</v>
       </c>
       <c r="I20" s="3">
+        <v>94500</v>
+      </c>
+      <c r="J20" s="3">
         <v>11200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>9500</v>
       </c>
-      <c r="K20" s="3"/>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L20" s="3"/>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>4015900</v>
+        <v>4847900</v>
       </c>
       <c r="E21" s="3">
-        <v>2523000</v>
+        <v>4039400</v>
       </c>
       <c r="F21" s="3">
-        <v>2949200</v>
+        <v>2538000</v>
       </c>
       <c r="G21" s="3">
-        <v>3143700</v>
+        <v>2966700</v>
       </c>
       <c r="H21" s="3">
-        <v>3057800</v>
+        <v>3162100</v>
       </c>
       <c r="I21" s="3">
-        <v>2732400</v>
+        <v>3075600</v>
       </c>
       <c r="J21" s="3">
+        <v>2748400</v>
+      </c>
+      <c r="K21" s="3">
         <v>3142300</v>
       </c>
-      <c r="K21" s="3"/>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L21" s="3"/>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>166100</v>
+        <v>219100</v>
       </c>
       <c r="E22" s="3">
-        <v>74200</v>
+        <v>167000</v>
       </c>
       <c r="F22" s="3">
-        <v>79300</v>
+        <v>74600</v>
       </c>
       <c r="G22" s="3">
-        <v>84300</v>
+        <v>79700</v>
       </c>
       <c r="H22" s="3">
-        <v>79800</v>
+        <v>84800</v>
       </c>
       <c r="I22" s="3">
-        <v>74500</v>
+        <v>80300</v>
       </c>
       <c r="J22" s="3">
+        <v>74900</v>
+      </c>
+      <c r="K22" s="3">
         <v>70400</v>
       </c>
-      <c r="K22" s="3"/>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L22" s="3"/>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>2637900</v>
+        <v>3431200</v>
       </c>
       <c r="E23" s="3">
-        <v>1504900</v>
+        <v>2652500</v>
       </c>
       <c r="F23" s="3">
-        <v>1852100</v>
+        <v>1513200</v>
       </c>
       <c r="G23" s="3">
-        <v>2134100</v>
+        <v>1862400</v>
       </c>
       <c r="H23" s="3">
-        <v>2188200</v>
+        <v>2145900</v>
       </c>
       <c r="I23" s="3">
-        <v>1849600</v>
+        <v>2200300</v>
       </c>
       <c r="J23" s="3">
+        <v>1859800</v>
+      </c>
+      <c r="K23" s="3">
         <v>2256500</v>
       </c>
-      <c r="K23" s="3"/>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L23" s="3"/>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>780900</v>
+        <v>969000</v>
       </c>
       <c r="E24" s="3">
-        <v>455700</v>
+        <v>785300</v>
       </c>
       <c r="F24" s="3">
-        <v>576000</v>
+        <v>458200</v>
       </c>
       <c r="G24" s="3">
-        <v>709600</v>
+        <v>579200</v>
       </c>
       <c r="H24" s="3">
-        <v>686500</v>
+        <v>713500</v>
       </c>
       <c r="I24" s="3">
-        <v>624600</v>
+        <v>690300</v>
       </c>
       <c r="J24" s="3">
+        <v>628000</v>
+      </c>
+      <c r="K24" s="3">
         <v>673200</v>
       </c>
-      <c r="K24" s="3"/>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L24" s="3"/>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1180,63 +1193,72 @@
       <c r="J25" s="3">
         <v>0</v>
       </c>
-      <c r="K25" s="3"/>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K25" s="3">
+        <v>0</v>
+      </c>
+      <c r="L25" s="3"/>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1857000</v>
+        <v>2462200</v>
       </c>
       <c r="E26" s="3">
-        <v>1049200</v>
+        <v>1867300</v>
       </c>
       <c r="F26" s="3">
-        <v>1276100</v>
+        <v>1055000</v>
       </c>
       <c r="G26" s="3">
-        <v>1424500</v>
+        <v>1283200</v>
       </c>
       <c r="H26" s="3">
-        <v>1501700</v>
+        <v>1432400</v>
       </c>
       <c r="I26" s="3">
-        <v>1225000</v>
+        <v>1510000</v>
       </c>
       <c r="J26" s="3">
+        <v>1231800</v>
+      </c>
+      <c r="K26" s="3">
         <v>1583300</v>
       </c>
-      <c r="K26" s="3"/>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L26" s="3"/>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1775500</v>
+        <v>2331500</v>
       </c>
       <c r="E27" s="3">
-        <v>1025000</v>
+        <v>1785400</v>
       </c>
       <c r="F27" s="3">
-        <v>1242300</v>
+        <v>1030600</v>
       </c>
       <c r="G27" s="3">
-        <v>1392200</v>
+        <v>1249200</v>
       </c>
       <c r="H27" s="3">
-        <v>1442000</v>
+        <v>1399900</v>
       </c>
       <c r="I27" s="3">
-        <v>1141900</v>
+        <v>1450000</v>
       </c>
       <c r="J27" s="3">
+        <v>1148300</v>
+      </c>
+      <c r="K27" s="3">
         <v>1510100</v>
       </c>
-      <c r="K27" s="3"/>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L27" s="3"/>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1261,9 +1283,12 @@
       <c r="J28" s="3">
         <v>0</v>
       </c>
-      <c r="K28" s="3"/>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K28" s="3">
+        <v>0</v>
+      </c>
+      <c r="L28" s="3"/>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1288,9 +1313,12 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3"/>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3"/>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1315,9 +1343,12 @@
       <c r="J30" s="3">
         <v>0</v>
       </c>
-      <c r="K30" s="3"/>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K30" s="3">
+        <v>0</v>
+      </c>
+      <c r="L30" s="3"/>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1342,63 +1373,72 @@
       <c r="J31" s="3">
         <v>0</v>
       </c>
-      <c r="K31" s="3"/>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K31" s="3">
+        <v>0</v>
+      </c>
+      <c r="L31" s="3"/>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-348900</v>
+        <v>-34200</v>
       </c>
       <c r="E32" s="3">
+        <v>-350900</v>
+      </c>
+      <c r="F32" s="3">
         <v>-5300</v>
       </c>
-      <c r="F32" s="3">
-        <v>-45900</v>
-      </c>
       <c r="G32" s="3">
-        <v>-30200</v>
+        <v>-46100</v>
       </c>
       <c r="H32" s="3">
-        <v>-93900</v>
+        <v>-30400</v>
       </c>
       <c r="I32" s="3">
+        <v>-94500</v>
+      </c>
+      <c r="J32" s="3">
         <v>-11200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-9500</v>
       </c>
-      <c r="K32" s="3"/>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L32" s="3"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1775500</v>
+        <v>2331500</v>
       </c>
       <c r="E33" s="3">
-        <v>1025000</v>
+        <v>1785400</v>
       </c>
       <c r="F33" s="3">
-        <v>1242300</v>
+        <v>1030600</v>
       </c>
       <c r="G33" s="3">
-        <v>1392200</v>
+        <v>1249200</v>
       </c>
       <c r="H33" s="3">
-        <v>1442000</v>
+        <v>1399900</v>
       </c>
       <c r="I33" s="3">
-        <v>1141900</v>
+        <v>1450000</v>
       </c>
       <c r="J33" s="3">
+        <v>1148300</v>
+      </c>
+      <c r="K33" s="3">
         <v>1510100</v>
       </c>
-      <c r="K33" s="3"/>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L33" s="3"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1423,68 +1463,77 @@
       <c r="J34" s="3">
         <v>0</v>
       </c>
-      <c r="K34" s="3"/>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K34" s="3">
+        <v>0</v>
+      </c>
+      <c r="L34" s="3"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1775500</v>
+        <v>2331500</v>
       </c>
       <c r="E35" s="3">
-        <v>1025000</v>
+        <v>1785400</v>
       </c>
       <c r="F35" s="3">
-        <v>1242300</v>
+        <v>1030600</v>
       </c>
       <c r="G35" s="3">
-        <v>1392200</v>
+        <v>1249200</v>
       </c>
       <c r="H35" s="3">
-        <v>1442000</v>
+        <v>1399900</v>
       </c>
       <c r="I35" s="3">
-        <v>1141900</v>
+        <v>1450000</v>
       </c>
       <c r="J35" s="3">
+        <v>1148300</v>
+      </c>
+      <c r="K35" s="3">
         <v>1510100</v>
       </c>
-      <c r="K35" s="3"/>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L35" s="3"/>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43555</v>
+      </c>
+      <c r="E38" s="2">
         <v>43190</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>42825</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42460</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42094</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>41729</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41364</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>40999</v>
       </c>
-      <c r="K38" s="2"/>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L38" s="2"/>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1496,8 +1545,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1509,251 +1559,279 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1327600</v>
+        <v>1370900</v>
       </c>
       <c r="E41" s="3">
-        <v>1104600</v>
+        <v>1334900</v>
       </c>
       <c r="F41" s="3">
-        <v>980600</v>
+        <v>1110700</v>
       </c>
       <c r="G41" s="3">
-        <v>970100</v>
+        <v>986000</v>
       </c>
       <c r="H41" s="3">
-        <v>824000</v>
+        <v>975500</v>
       </c>
       <c r="I41" s="3">
-        <v>848300</v>
+        <v>828500</v>
       </c>
       <c r="J41" s="3">
+        <v>853000</v>
+      </c>
+      <c r="K41" s="3">
         <v>751000</v>
       </c>
-      <c r="K41" s="3"/>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L41" s="3"/>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>9000</v>
+        <v>13800</v>
       </c>
       <c r="E42" s="3">
+        <v>9100</v>
+      </c>
+      <c r="F42" s="3">
         <v>1700</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>2300</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>3400</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>4400</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>5100</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>8200</v>
       </c>
-      <c r="K42" s="3"/>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L42" s="3"/>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>7166200</v>
+        <v>7655800</v>
       </c>
       <c r="E43" s="3">
-        <v>5598300</v>
+        <v>7205800</v>
       </c>
       <c r="F43" s="3">
-        <v>5274000</v>
+        <v>5629200</v>
       </c>
       <c r="G43" s="3">
-        <v>5605600</v>
+        <v>5303100</v>
       </c>
       <c r="H43" s="3">
-        <v>5580900</v>
+        <v>5636700</v>
       </c>
       <c r="I43" s="3">
-        <v>5486700</v>
+        <v>5611800</v>
       </c>
       <c r="J43" s="3">
+        <v>5517100</v>
+      </c>
+      <c r="K43" s="3">
         <v>5060100</v>
       </c>
-      <c r="K43" s="3"/>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L43" s="3"/>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>6601800</v>
+        <v>7613300</v>
       </c>
       <c r="E44" s="3">
-        <v>4826400</v>
+        <v>6638300</v>
       </c>
       <c r="F44" s="3">
-        <v>4878100</v>
+        <v>4853100</v>
       </c>
       <c r="G44" s="3">
-        <v>5630800</v>
+        <v>4905100</v>
       </c>
       <c r="H44" s="3">
-        <v>5650700</v>
+        <v>5661900</v>
       </c>
       <c r="I44" s="3">
-        <v>5728200</v>
+        <v>5681900</v>
       </c>
       <c r="J44" s="3">
+        <v>5759900</v>
+      </c>
+      <c r="K44" s="3">
         <v>5535700</v>
       </c>
-      <c r="K44" s="3"/>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L44" s="3"/>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1145600</v>
+        <v>1244000</v>
       </c>
       <c r="E45" s="3">
-        <v>1301500</v>
+        <v>1151900</v>
       </c>
       <c r="F45" s="3">
-        <v>1398600</v>
+        <v>1308700</v>
       </c>
       <c r="G45" s="3">
-        <v>1543800</v>
+        <v>1406400</v>
       </c>
       <c r="H45" s="3">
-        <v>1440700</v>
+        <v>1552400</v>
       </c>
       <c r="I45" s="3">
-        <v>1419900</v>
+        <v>1448700</v>
       </c>
       <c r="J45" s="3">
+        <v>1427800</v>
+      </c>
+      <c r="K45" s="3">
         <v>1304300</v>
       </c>
-      <c r="K45" s="3"/>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L45" s="3"/>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>16250200</v>
+        <v>17897800</v>
       </c>
       <c r="E46" s="3">
-        <v>12832500</v>
+        <v>16340100</v>
       </c>
       <c r="F46" s="3">
-        <v>12533500</v>
+        <v>12903400</v>
       </c>
       <c r="G46" s="3">
-        <v>13753800</v>
+        <v>12602900</v>
       </c>
       <c r="H46" s="3">
-        <v>13500600</v>
+        <v>13829800</v>
       </c>
       <c r="I46" s="3">
-        <v>13488200</v>
+        <v>13575300</v>
       </c>
       <c r="J46" s="3">
+        <v>13562800</v>
+      </c>
+      <c r="K46" s="3">
         <v>12659400</v>
       </c>
-      <c r="K46" s="3"/>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L46" s="3"/>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>3656300</v>
+        <v>4191900</v>
       </c>
       <c r="E47" s="3">
-        <v>3724400</v>
+        <v>3676500</v>
       </c>
       <c r="F47" s="3">
-        <v>3359600</v>
+        <v>3745000</v>
       </c>
       <c r="G47" s="3">
-        <v>3452500</v>
+        <v>3378200</v>
       </c>
       <c r="H47" s="3">
-        <v>3175500</v>
+        <v>3471600</v>
       </c>
       <c r="I47" s="3">
-        <v>2843200</v>
+        <v>3193100</v>
       </c>
       <c r="J47" s="3">
+        <v>2858900</v>
+      </c>
+      <c r="K47" s="3">
         <v>2365200</v>
       </c>
-      <c r="K47" s="3"/>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L47" s="3"/>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>6694400</v>
+        <v>7057700</v>
       </c>
       <c r="E48" s="3">
-        <v>6138400</v>
+        <v>6731400</v>
       </c>
       <c r="F48" s="3">
-        <v>6307600</v>
+        <v>6172400</v>
       </c>
       <c r="G48" s="3">
-        <v>6725000</v>
+        <v>6342500</v>
       </c>
       <c r="H48" s="3">
-        <v>6032800</v>
+        <v>6762200</v>
       </c>
       <c r="I48" s="3">
-        <v>5290400</v>
+        <v>6066200</v>
       </c>
       <c r="J48" s="3">
+        <v>5319600</v>
+      </c>
+      <c r="K48" s="3">
         <v>4788100</v>
       </c>
-      <c r="K48" s="3"/>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L48" s="3"/>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2975000</v>
+        <v>2984500</v>
       </c>
       <c r="E49" s="3">
-        <v>914400</v>
+        <v>2991500</v>
       </c>
       <c r="F49" s="3">
-        <v>931700</v>
+        <v>919500</v>
       </c>
       <c r="G49" s="3">
-        <v>858600</v>
+        <v>936800</v>
       </c>
       <c r="H49" s="3">
-        <v>854800</v>
+        <v>863400</v>
       </c>
       <c r="I49" s="3">
-        <v>842800</v>
+        <v>859500</v>
       </c>
       <c r="J49" s="3">
+        <v>847400</v>
+      </c>
+      <c r="K49" s="3">
         <v>806200</v>
       </c>
-      <c r="K49" s="3"/>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L49" s="3"/>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1778,9 +1856,12 @@
       <c r="J50" s="3">
         <v>0</v>
       </c>
-      <c r="K50" s="3"/>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K50" s="3">
+        <v>0</v>
+      </c>
+      <c r="L50" s="3"/>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1805,36 +1886,42 @@
       <c r="J51" s="3">
         <v>0</v>
       </c>
-      <c r="K51" s="3"/>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K51" s="3">
+        <v>0</v>
+      </c>
+      <c r="L51" s="3"/>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>911800</v>
+        <v>939500</v>
       </c>
       <c r="E52" s="3">
-        <v>404900</v>
+        <v>916900</v>
       </c>
       <c r="F52" s="3">
-        <v>504100</v>
+        <v>407100</v>
       </c>
       <c r="G52" s="3">
-        <v>507700</v>
+        <v>506900</v>
       </c>
       <c r="H52" s="3">
-        <v>406400</v>
+        <v>510500</v>
       </c>
       <c r="I52" s="3">
-        <v>296900</v>
+        <v>408600</v>
       </c>
       <c r="J52" s="3">
+        <v>298600</v>
+      </c>
+      <c r="K52" s="3">
         <v>358800</v>
       </c>
-      <c r="K52" s="3"/>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L52" s="3"/>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1859,36 +1946,42 @@
       <c r="J53" s="3">
         <v>0</v>
       </c>
-      <c r="K53" s="3"/>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K53" s="3">
+        <v>0</v>
+      </c>
+      <c r="L53" s="3"/>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>30487700</v>
+        <v>33071400</v>
       </c>
       <c r="E54" s="3">
-        <v>24014600</v>
+        <v>30656400</v>
       </c>
       <c r="F54" s="3">
-        <v>23636500</v>
+        <v>24147400</v>
       </c>
       <c r="G54" s="3">
-        <v>25297600</v>
+        <v>23767200</v>
       </c>
       <c r="H54" s="3">
-        <v>23970100</v>
+        <v>25437500</v>
       </c>
       <c r="I54" s="3">
-        <v>22761400</v>
+        <v>24102600</v>
       </c>
       <c r="J54" s="3">
+        <v>22887300</v>
+      </c>
+      <c r="K54" s="3">
         <v>20977600</v>
       </c>
-      <c r="K54" s="3"/>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L54" s="3"/>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1900,8 +1993,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1913,170 +2007,189 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2744100</v>
+        <v>2426600</v>
       </c>
       <c r="E57" s="3">
-        <v>2170600</v>
+        <v>2759300</v>
       </c>
       <c r="F57" s="3">
-        <v>1856900</v>
+        <v>2182600</v>
       </c>
       <c r="G57" s="3">
-        <v>2034800</v>
+        <v>1867200</v>
       </c>
       <c r="H57" s="3">
-        <v>2117400</v>
+        <v>2046100</v>
       </c>
       <c r="I57" s="3">
-        <v>2045500</v>
+        <v>2129200</v>
       </c>
       <c r="J57" s="3">
+        <v>2056800</v>
+      </c>
+      <c r="K57" s="3">
         <v>2472100</v>
       </c>
-      <c r="K57" s="3"/>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L57" s="3"/>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2982300</v>
+        <v>4165200</v>
       </c>
       <c r="E58" s="3">
-        <v>1969300</v>
+        <v>2998800</v>
       </c>
       <c r="F58" s="3">
-        <v>2214000</v>
+        <v>1980200</v>
       </c>
       <c r="G58" s="3">
-        <v>2801100</v>
+        <v>2226300</v>
       </c>
       <c r="H58" s="3">
-        <v>2657800</v>
+        <v>2816600</v>
       </c>
       <c r="I58" s="3">
-        <v>3037000</v>
+        <v>2672500</v>
       </c>
       <c r="J58" s="3">
+        <v>3053800</v>
+      </c>
+      <c r="K58" s="3">
         <v>3030900</v>
       </c>
-      <c r="K58" s="3"/>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L58" s="3"/>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3220100</v>
+        <v>3244900</v>
       </c>
       <c r="E59" s="3">
-        <v>2189700</v>
+        <v>3237900</v>
       </c>
       <c r="F59" s="3">
-        <v>2265100</v>
+        <v>2201800</v>
       </c>
       <c r="G59" s="3">
-        <v>2440400</v>
+        <v>2277700</v>
       </c>
       <c r="H59" s="3">
-        <v>2386600</v>
+        <v>2453900</v>
       </c>
       <c r="I59" s="3">
-        <v>2398800</v>
+        <v>2399800</v>
       </c>
       <c r="J59" s="3">
+        <v>2412000</v>
+      </c>
+      <c r="K59" s="3">
         <v>2304900</v>
       </c>
-      <c r="K59" s="3"/>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L59" s="3"/>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>8946500</v>
+        <v>9836600</v>
       </c>
       <c r="E60" s="3">
-        <v>6329600</v>
+        <v>8996000</v>
       </c>
       <c r="F60" s="3">
-        <v>6336100</v>
+        <v>6364700</v>
       </c>
       <c r="G60" s="3">
-        <v>7276400</v>
+        <v>6371100</v>
       </c>
       <c r="H60" s="3">
-        <v>7161800</v>
+        <v>7316600</v>
       </c>
       <c r="I60" s="3">
-        <v>7481300</v>
+        <v>7201400</v>
       </c>
       <c r="J60" s="3">
+        <v>7522700</v>
+      </c>
+      <c r="K60" s="3">
         <v>7807900</v>
       </c>
-      <c r="K60" s="3"/>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L60" s="3"/>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>4345500</v>
+        <v>4294900</v>
       </c>
       <c r="E61" s="3">
-        <v>1725400</v>
+        <v>4369500</v>
       </c>
       <c r="F61" s="3">
-        <v>1922200</v>
+        <v>1734900</v>
       </c>
       <c r="G61" s="3">
-        <v>2524600</v>
+        <v>1932900</v>
       </c>
       <c r="H61" s="3">
-        <v>2812000</v>
+        <v>2538600</v>
       </c>
       <c r="I61" s="3">
-        <v>3108100</v>
+        <v>2827600</v>
       </c>
       <c r="J61" s="3">
+        <v>3125300</v>
+      </c>
+      <c r="K61" s="3">
         <v>2825200</v>
       </c>
-      <c r="K61" s="3"/>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L61" s="3"/>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1433600</v>
+        <v>1642800</v>
       </c>
       <c r="E62" s="3">
-        <v>1057000</v>
+        <v>1441600</v>
       </c>
       <c r="F62" s="3">
-        <v>1024800</v>
+        <v>1062900</v>
       </c>
       <c r="G62" s="3">
-        <v>1046200</v>
+        <v>1030500</v>
       </c>
       <c r="H62" s="3">
-        <v>968600</v>
+        <v>1051900</v>
       </c>
       <c r="I62" s="3">
-        <v>847700</v>
+        <v>974000</v>
       </c>
       <c r="J62" s="3">
+        <v>852400</v>
+      </c>
+      <c r="K62" s="3">
         <v>785100</v>
       </c>
-      <c r="K62" s="3"/>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L62" s="3"/>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2101,9 +2214,12 @@
       <c r="J63" s="3">
         <v>0</v>
       </c>
-      <c r="K63" s="3"/>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K63" s="3">
+        <v>0</v>
+      </c>
+      <c r="L63" s="3"/>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2128,9 +2244,12 @@
       <c r="J64" s="3">
         <v>0</v>
       </c>
-      <c r="K64" s="3"/>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K64" s="3">
+        <v>0</v>
+      </c>
+      <c r="L64" s="3"/>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2155,36 +2274,42 @@
       <c r="J65" s="3">
         <v>0</v>
       </c>
-      <c r="K65" s="3"/>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K65" s="3">
+        <v>0</v>
+      </c>
+      <c r="L65" s="3"/>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>15440300</v>
+        <v>16567800</v>
       </c>
       <c r="E66" s="3">
-        <v>9761500</v>
+        <v>15525700</v>
       </c>
       <c r="F66" s="3">
-        <v>9919000</v>
+        <v>9815500</v>
       </c>
       <c r="G66" s="3">
-        <v>11475700</v>
+        <v>9973900</v>
       </c>
       <c r="H66" s="3">
-        <v>11527500</v>
+        <v>11539200</v>
       </c>
       <c r="I66" s="3">
-        <v>11975000</v>
+        <v>11591200</v>
       </c>
       <c r="J66" s="3">
+        <v>12041200</v>
+      </c>
+      <c r="K66" s="3">
         <v>11849900</v>
       </c>
-      <c r="K66" s="3"/>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L66" s="3"/>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2196,8 +2321,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2222,9 +2348,12 @@
       <c r="J68" s="3">
         <v>0</v>
       </c>
-      <c r="K68" s="3"/>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K68" s="3">
+        <v>0</v>
+      </c>
+      <c r="L68" s="3"/>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2249,9 +2378,12 @@
       <c r="J69" s="3">
         <v>0</v>
       </c>
-      <c r="K69" s="3"/>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K69" s="3">
+        <v>0</v>
+      </c>
+      <c r="L69" s="3"/>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2276,9 +2408,12 @@
       <c r="J70" s="3">
         <v>0</v>
       </c>
-      <c r="K70" s="3"/>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3"/>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2303,36 +2438,42 @@
       <c r="J71" s="3">
         <v>0</v>
       </c>
-      <c r="K71" s="3"/>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K71" s="3">
+        <v>0</v>
+      </c>
+      <c r="L71" s="3"/>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>13901600</v>
+        <v>15454200</v>
       </c>
       <c r="E72" s="3">
-        <v>12680600</v>
+        <v>13978500</v>
       </c>
       <c r="F72" s="3">
-        <v>12150200</v>
+        <v>12750700</v>
       </c>
       <c r="G72" s="3">
-        <v>11402300</v>
+        <v>12217400</v>
       </c>
       <c r="H72" s="3">
-        <v>10682700</v>
+        <v>11465400</v>
       </c>
       <c r="I72" s="3">
-        <v>9697500</v>
+        <v>10741800</v>
       </c>
       <c r="J72" s="3">
+        <v>9751200</v>
+      </c>
+      <c r="K72" s="3">
         <v>8943700</v>
       </c>
-      <c r="K72" s="3"/>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L72" s="3"/>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2357,9 +2498,12 @@
       <c r="J73" s="3">
         <v>0</v>
       </c>
-      <c r="K73" s="3"/>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K73" s="3">
+        <v>0</v>
+      </c>
+      <c r="L73" s="3"/>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2384,9 +2528,12 @@
       <c r="J74" s="3">
         <v>0</v>
       </c>
-      <c r="K74" s="3"/>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K74" s="3">
+        <v>0</v>
+      </c>
+      <c r="L74" s="3"/>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2411,36 +2558,42 @@
       <c r="J75" s="3">
         <v>0</v>
       </c>
-      <c r="K75" s="3"/>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K75" s="3">
+        <v>0</v>
+      </c>
+      <c r="L75" s="3"/>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>15047400</v>
+        <v>16503600</v>
       </c>
       <c r="E76" s="3">
-        <v>14253100</v>
+        <v>15130700</v>
       </c>
       <c r="F76" s="3">
-        <v>13717400</v>
+        <v>14332000</v>
       </c>
       <c r="G76" s="3">
-        <v>13821900</v>
+        <v>13793300</v>
       </c>
       <c r="H76" s="3">
-        <v>12442600</v>
+        <v>13898300</v>
       </c>
       <c r="I76" s="3">
-        <v>10786500</v>
+        <v>12511400</v>
       </c>
       <c r="J76" s="3">
+        <v>10846100</v>
+      </c>
+      <c r="K76" s="3">
         <v>9127700</v>
       </c>
-      <c r="K76" s="3"/>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L76" s="3"/>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2465,68 +2618,77 @@
       <c r="J77" s="3">
         <v>0</v>
       </c>
-      <c r="K77" s="3"/>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K77" s="3">
+        <v>0</v>
+      </c>
+      <c r="L77" s="3"/>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43555</v>
+      </c>
+      <c r="E80" s="2">
         <v>43190</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>42825</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42460</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42094</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>41729</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41364</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>40999</v>
       </c>
-      <c r="K80" s="2"/>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L80" s="2"/>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1775500</v>
+        <v>2331500</v>
       </c>
       <c r="E81" s="3">
-        <v>1025000</v>
+        <v>1785400</v>
       </c>
       <c r="F81" s="3">
-        <v>1242300</v>
+        <v>1030600</v>
       </c>
       <c r="G81" s="3">
-        <v>1392200</v>
+        <v>1249200</v>
       </c>
       <c r="H81" s="3">
-        <v>1442000</v>
+        <v>1399900</v>
       </c>
       <c r="I81" s="3">
-        <v>1141900</v>
+        <v>1450000</v>
       </c>
       <c r="J81" s="3">
+        <v>1148300</v>
+      </c>
+      <c r="K81" s="3">
         <v>1510100</v>
       </c>
-      <c r="K81" s="3"/>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L81" s="3"/>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2538,35 +2700,39 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1210500</v>
+        <v>1195000</v>
       </c>
       <c r="E83" s="3">
-        <v>942800</v>
+        <v>1217200</v>
       </c>
       <c r="F83" s="3">
-        <v>1016700</v>
+        <v>948000</v>
       </c>
       <c r="G83" s="3">
-        <v>924200</v>
+        <v>1022300</v>
       </c>
       <c r="H83" s="3">
-        <v>788900</v>
+        <v>929400</v>
       </c>
       <c r="I83" s="3">
-        <v>807500</v>
+        <v>793300</v>
       </c>
       <c r="J83" s="3">
+        <v>811900</v>
+      </c>
+      <c r="K83" s="3">
         <v>814600</v>
       </c>
-      <c r="K83" s="3"/>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L83" s="3"/>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2591,9 +2757,12 @@
       <c r="J84" s="3">
         <v>0</v>
       </c>
-      <c r="K84" s="3"/>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K84" s="3">
+        <v>0</v>
+      </c>
+      <c r="L84" s="3"/>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2618,9 +2787,12 @@
       <c r="J85" s="3">
         <v>0</v>
       </c>
-      <c r="K85" s="3"/>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K85" s="3">
+        <v>0</v>
+      </c>
+      <c r="L85" s="3"/>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2645,9 +2817,12 @@
       <c r="J86" s="3">
         <v>0</v>
       </c>
-      <c r="K86" s="3"/>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K86" s="3">
+        <v>0</v>
+      </c>
+      <c r="L86" s="3"/>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2672,9 +2847,12 @@
       <c r="J87" s="3">
         <v>0</v>
       </c>
-      <c r="K87" s="3"/>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K87" s="3">
+        <v>0</v>
+      </c>
+      <c r="L87" s="3"/>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2699,36 +2877,42 @@
       <c r="J88" s="3">
         <v>0</v>
       </c>
-      <c r="K88" s="3"/>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K88" s="3">
+        <v>0</v>
+      </c>
+      <c r="L88" s="3"/>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1341500</v>
+        <v>1841200</v>
       </c>
       <c r="E89" s="3">
-        <v>2315400</v>
+        <v>1348900</v>
       </c>
       <c r="F89" s="3">
-        <v>2889500</v>
+        <v>2328200</v>
       </c>
       <c r="G89" s="3">
-        <v>3106600</v>
+        <v>2905500</v>
       </c>
       <c r="H89" s="3">
-        <v>2887600</v>
+        <v>3123800</v>
       </c>
       <c r="I89" s="3">
-        <v>1935000</v>
+        <v>2903600</v>
       </c>
       <c r="J89" s="3">
+        <v>1945700</v>
+      </c>
+      <c r="K89" s="3">
         <v>954700</v>
       </c>
-      <c r="K89" s="3"/>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L89" s="3"/>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2740,35 +2924,39 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1400500</v>
+        <v>-1745700</v>
       </c>
       <c r="E91" s="3">
-        <v>-1361600</v>
+        <v>-1408300</v>
       </c>
       <c r="F91" s="3">
-        <v>-1505000</v>
+        <v>-1369100</v>
       </c>
       <c r="G91" s="3">
-        <v>-1808700</v>
+        <v>-1513300</v>
       </c>
       <c r="H91" s="3">
-        <v>-1681700</v>
+        <v>-1818700</v>
       </c>
       <c r="I91" s="3">
-        <v>-1292600</v>
+        <v>-1691000</v>
       </c>
       <c r="J91" s="3">
+        <v>-1299800</v>
+      </c>
+      <c r="K91" s="3">
         <v>-1139900</v>
       </c>
-      <c r="K91" s="3"/>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L91" s="3"/>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2793,9 +2981,12 @@
       <c r="J92" s="3">
         <v>0</v>
       </c>
-      <c r="K92" s="3"/>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K92" s="3">
+        <v>0</v>
+      </c>
+      <c r="L92" s="3"/>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2820,36 +3011,42 @@
       <c r="J93" s="3">
         <v>0</v>
       </c>
-      <c r="K93" s="3"/>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K93" s="3">
+        <v>0</v>
+      </c>
+      <c r="L93" s="3"/>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-3414800</v>
+        <v>-1701700</v>
       </c>
       <c r="E94" s="3">
-        <v>-1205000</v>
+        <v>-3433700</v>
       </c>
       <c r="F94" s="3">
-        <v>-1343700</v>
+        <v>-1211700</v>
       </c>
       <c r="G94" s="3">
-        <v>-1643400</v>
+        <v>-1351200</v>
       </c>
       <c r="H94" s="3">
-        <v>-1513600</v>
+        <v>-1652500</v>
       </c>
       <c r="I94" s="3">
-        <v>-1187800</v>
+        <v>-1522000</v>
       </c>
       <c r="J94" s="3">
+        <v>-1194400</v>
+      </c>
+      <c r="K94" s="3">
         <v>-1125800</v>
       </c>
-      <c r="K94" s="3"/>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L94" s="3"/>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2861,35 +3058,39 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-554500</v>
+        <v>-849500</v>
       </c>
       <c r="E96" s="3">
-        <v>-494600</v>
+        <v>-557500</v>
       </c>
       <c r="F96" s="3">
-        <v>-494500</v>
+        <v>-497300</v>
       </c>
       <c r="G96" s="3">
-        <v>-500100</v>
+        <v>-497200</v>
       </c>
       <c r="H96" s="3">
-        <v>-456900</v>
+        <v>-502900</v>
       </c>
       <c r="I96" s="3">
-        <v>-387600</v>
+        <v>-459400</v>
       </c>
       <c r="J96" s="3">
+        <v>-389800</v>
+      </c>
+      <c r="K96" s="3">
         <v>-358900</v>
       </c>
-      <c r="K96" s="3"/>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L96" s="3"/>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -2914,9 +3115,12 @@
       <c r="J97" s="3">
         <v>0</v>
       </c>
-      <c r="K97" s="3"/>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K97" s="3">
+        <v>0</v>
+      </c>
+      <c r="L97" s="3"/>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -2941,9 +3145,12 @@
       <c r="J98" s="3">
         <v>0</v>
       </c>
-      <c r="K98" s="3"/>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K98" s="3">
+        <v>0</v>
+      </c>
+      <c r="L98" s="3"/>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -2968,88 +3175,100 @@
       <c r="J99" s="3">
         <v>0</v>
       </c>
-      <c r="K99" s="3"/>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K99" s="3">
+        <v>0</v>
+      </c>
+      <c r="L99" s="3"/>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>2205300</v>
+        <v>-33300</v>
       </c>
       <c r="E100" s="3">
-        <v>-973800</v>
+        <v>2217500</v>
       </c>
       <c r="F100" s="3">
-        <v>-1564600</v>
+        <v>-979200</v>
       </c>
       <c r="G100" s="3">
-        <v>-1301600</v>
+        <v>-1573300</v>
       </c>
       <c r="H100" s="3">
-        <v>-1404400</v>
+        <v>-1308800</v>
       </c>
       <c r="I100" s="3">
-        <v>-649200</v>
+        <v>-1412100</v>
       </c>
       <c r="J100" s="3">
+        <v>-652800</v>
+      </c>
+      <c r="K100" s="3">
         <v>169800</v>
       </c>
-      <c r="K100" s="3"/>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L100" s="3"/>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>89500</v>
+        <v>-69100</v>
       </c>
       <c r="E101" s="3">
+        <v>90000</v>
+      </c>
+      <c r="F101" s="3">
         <v>-13300</v>
       </c>
-      <c r="F101" s="3">
-        <v>22100</v>
-      </c>
       <c r="G101" s="3">
-        <v>-25700</v>
+        <v>22200</v>
       </c>
       <c r="H101" s="3">
+        <v>-25900</v>
+      </c>
+      <c r="I101" s="3">
         <v>5600</v>
       </c>
-      <c r="I101" s="3">
-        <v>-2600</v>
-      </c>
       <c r="J101" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="K101" s="3">
         <v>-9000</v>
       </c>
-      <c r="K101" s="3"/>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L101" s="3"/>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>221400</v>
+        <v>37100</v>
       </c>
       <c r="E102" s="3">
-        <v>123300</v>
+        <v>222700</v>
       </c>
       <c r="F102" s="3">
+        <v>124000</v>
+      </c>
+      <c r="G102" s="3">
         <v>3200</v>
       </c>
-      <c r="G102" s="3">
-        <v>135900</v>
-      </c>
       <c r="H102" s="3">
-        <v>-24800</v>
+        <v>136600</v>
       </c>
       <c r="I102" s="3">
-        <v>95300</v>
+        <v>-25000</v>
       </c>
       <c r="J102" s="3">
+        <v>95800</v>
+      </c>
+      <c r="K102" s="3">
         <v>-10400</v>
       </c>
-      <c r="K102" s="3"/>
+      <c r="L102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
